--- a/database.xlsx
+++ b/database.xlsx
@@ -1356,38 +1356,38 @@
     <row r="28">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="13"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="16"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="10"/>
     </row>
     <row r="30">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="13"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="7"/>
     </row>
     <row r="31">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="16"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="10"/>
     </row>
     <row r="32">
       <c r="A32" s="5"/>
